--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA95304-0E54-4EF3-9570-2EF2D36EB65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9776E8F9-8454-4876-ADDA-1BC9D5F1AE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
   <si>
     <t>Buổi</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Cơm và bò xào xả ớt (ăn chùa).</t>
+  </si>
+  <si>
+    <t>Tôm luộc, bánh tráng trộn (25k) + bánh tráng cuốn (25k).</t>
+  </si>
+  <si>
+    <t>Cơm + khổ qua nhồi thịt</t>
   </si>
 </sst>
 </file>
@@ -179,14 +185,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -198,9 +206,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,12 +489,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="33.09765625" customWidth="1"/>
     <col min="6" max="6" width="28.796875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
@@ -498,493 +504,430 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>7</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>8</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>9</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>11</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>13</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>14</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>15</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>16</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>17</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>18</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <v>19</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>21</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>22</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>23</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>24</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>25</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2">
         <v>26</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>27</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>28</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <v>29</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A20:B21"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="C10:L10"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="C20:L20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1003,465 +946,398 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>7</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>8</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>9</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>11</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>13</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>14</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>15</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>16</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>17</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>18</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <v>19</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>21</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>22</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>23</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>24</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>25</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2">
         <v>26</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>27</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>28</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <v>29</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1492,465 +1368,398 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>7</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>8</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>9</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>11</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>13</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>14</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>15</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>16</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>17</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>18</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <v>19</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>21</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>22</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>23</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>24</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>25</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2">
         <v>26</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>27</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>28</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <v>29</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9776E8F9-8454-4876-ADDA-1BC9D5F1AE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3924524-BED8-4122-B6D8-31E583FB4B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="18">
   <si>
     <t>Buổi</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Cơm + khổ qua nhồi thịt</t>
+  </si>
+  <si>
+    <t>Bún bò (35k), trà đá (chùa)</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -747,7 +750,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -760,7 +763,9 @@
         <v>9</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>

--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3924524-BED8-4122-B6D8-31E583FB4B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA82899-EB07-4F71-A4AC-E2664F730976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
   <si>
     <t>Buổi</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Bún bò (35k), trà đá (chùa)</t>
+  </si>
+  <si>
+    <t>Vịt quay + tôm luộc + rượu (ăn chùa thôi nôi cháu)</t>
   </si>
 </sst>
 </file>
@@ -492,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -502,6 +505,7 @@
     <col min="5" max="5" width="33.09765625" customWidth="1"/>
     <col min="6" max="6" width="28.796875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -572,7 +576,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -584,7 +588,9 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>

--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA82899-EB07-4F71-A4AC-E2664F730976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBD955A-0920-4513-AF2D-600D6BB7F23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,28 @@
     <sheet name="Thang 1-2025" sheetId="2" r:id="rId2"/>
     <sheet name="Thang 2-2025" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
   <si>
     <t>Buổi</t>
   </si>
@@ -84,19 +95,31 @@
   </si>
   <si>
     <t>Vịt quay + tôm luộc + rượu (ăn chùa thôi nôi cháu)</t>
+  </si>
+  <si>
+    <t>Cơm thịt kho ruốc + chuối (30k). Xúc xích (free). Trà sữa lớn ministop (28k)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0;00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF383A42"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -213,6 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -505,6 +529,7 @@
     <col min="5" max="5" width="33.09765625" customWidth="1"/>
     <col min="6" max="6" width="28.796875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
     <col min="10" max="10" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -576,7 +601,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -712,7 +737,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="138" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>2</v>
@@ -730,7 +755,9 @@
       <c r="G13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -784,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>

--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBD955A-0920-4513-AF2D-600D6BB7F23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AAD2E8-89DD-44AA-B3C9-D4AA73F23EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
   <si>
     <t>Buổi</t>
   </si>
@@ -82,22 +104,25 @@
     <t>Bình nước suối 5l</t>
   </si>
   <si>
-    <t>Cơm và bò xào xả ớt (ăn chùa).</t>
-  </si>
-  <si>
     <t>Tôm luộc, bánh tráng trộn (25k) + bánh tráng cuốn (25k).</t>
   </si>
   <si>
     <t>Cơm + khổ qua nhồi thịt</t>
   </si>
   <si>
-    <t>Bún bò (35k), trà đá (chùa)</t>
-  </si>
-  <si>
     <t>Vịt quay + tôm luộc + rượu (ăn chùa thôi nôi cháu)</t>
   </si>
   <si>
-    <t>Cơm thịt kho ruốc + chuối (30k). Xúc xích (free). Trà sữa lớn ministop (28k)</t>
+    <t>cơm gà xối mỡ đùi tỏi (32k). Café sữa đá (20k)</t>
+  </si>
+  <si>
+    <t>Bún bò (35k), trà đá (0k)</t>
+  </si>
+  <si>
+    <t>Cơm và bò xào xả ớt (0k).</t>
+  </si>
+  <si>
+    <t>Cơm thịt kho ruốc + chuối (30k). Xúc xích (0k). Trà sữa lớn ministop (28k)</t>
   </si>
 </sst>
 </file>
@@ -105,9 +130,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0;00"/>
+    <numFmt numFmtId="169" formatCode="0&quot;k&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,18 +141,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF383A42"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -214,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -236,7 +290,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -614,7 +689,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -668,60 +743,60 @@
       <c r="L7" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="16">
         <v>11</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="16">
         <v>12</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="16">
         <v>13</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="16">
         <v>14</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="16">
         <v>15</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="16">
         <v>16</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="16">
         <v>17</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="16">
         <v>18</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="16">
         <v>19</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="3"/>
@@ -737,14 +812,14 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="138" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:12" ht="69" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
@@ -756,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -764,14 +839,14 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
@@ -784,34 +859,36 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
@@ -822,6 +899,63 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C12&amp;" "&amp;C13&amp;" "&amp;C14&amp;" "&amp;C15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C12&amp;" "&amp;C13&amp;" "&amp;C14&amp;" "&amp;C15)-LEN(SUBSTITUTE(C12&amp;" "&amp;C13&amp;" "&amp;C14&amp;" "&amp;C15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C12&amp;" "&amp;C13&amp;" "&amp;C14&amp;" "&amp;C15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C12&amp;" "&amp;C13&amp;" "&amp;C14&amp;" "&amp;C15)-LEN(SUBSTITUTE(C12&amp;" "&amp;C13&amp;" "&amp;C14&amp;" "&amp;C15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="9" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(D12&amp;" "&amp;D13&amp;" "&amp;D14&amp;" "&amp;D15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(D12&amp;" "&amp;D13&amp;" "&amp;D14&amp;" "&amp;D15)-LEN(SUBSTITUTE(D12&amp;" "&amp;D13&amp;" "&amp;D14&amp;" "&amp;D15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(D12&amp;" "&amp;D13&amp;" "&amp;D14&amp;" "&amp;D15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(D12&amp;" "&amp;D13&amp;" "&amp;D14&amp;" "&amp;D15)-LEN(SUBSTITUTE(D12&amp;" "&amp;D13&amp;" "&amp;D14&amp;" "&amp;D15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
+        <v>50</v>
+      </c>
+      <c r="E17" s="9" cm="1">
+        <f t="array" aca="1" ref="E17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(E12&amp;" "&amp;E13&amp;" "&amp;E14&amp;" "&amp;E15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(E12&amp;" "&amp;E13&amp;" "&amp;E14&amp;" "&amp;E15)-LEN(SUBSTITUTE(E12&amp;" "&amp;E13&amp;" "&amp;E14&amp;" "&amp;E15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(E12&amp;" "&amp;E13&amp;" "&amp;E14&amp;" "&amp;E15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(E12&amp;" "&amp;E13&amp;" "&amp;E14&amp;" "&amp;E15)-LEN(SUBSTITUTE(E12&amp;" "&amp;E13&amp;" "&amp;E14&amp;" "&amp;E15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
+        <v>143</v>
+      </c>
+      <c r="F17" s="9" cm="1">
+        <f t="array" aca="1" ref="F17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(F12&amp;" "&amp;F13&amp;" "&amp;F14&amp;" "&amp;F15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(F12&amp;" "&amp;F13&amp;" "&amp;F14&amp;" "&amp;F15)-LEN(SUBSTITUTE(F12&amp;" "&amp;F13&amp;" "&amp;F14&amp;" "&amp;F15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(F12&amp;" "&amp;F13&amp;" "&amp;F14&amp;" "&amp;F15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(F12&amp;" "&amp;F13&amp;" "&amp;F14&amp;" "&amp;F15)-LEN(SUBSTITUTE(F12&amp;" "&amp;F13&amp;" "&amp;F14&amp;" "&amp;F15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
+        <v>169</v>
+      </c>
+      <c r="G17" s="9" cm="1">
+        <f t="array" aca="1" ref="G17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(G12&amp;" "&amp;G13&amp;" "&amp;G14&amp;" "&amp;G15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(G12&amp;" "&amp;G13&amp;" "&amp;G14&amp;" "&amp;G15)-LEN(SUBSTITUTE(G12&amp;" "&amp;G13&amp;" "&amp;G14&amp;" "&amp;G15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(G12&amp;" "&amp;G13&amp;" "&amp;G14&amp;" "&amp;G15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(G12&amp;" "&amp;G13&amp;" "&amp;G14&amp;" "&amp;G15)-LEN(SUBSTITUTE(G12&amp;" "&amp;G13&amp;" "&amp;G14&amp;" "&amp;G15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
+        <v>98</v>
+      </c>
+      <c r="H17" s="9" cm="1">
+        <f t="array" aca="1" ref="H17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(H12&amp;" "&amp;H13&amp;" "&amp;H14&amp;" "&amp;H15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(H12&amp;" "&amp;H13&amp;" "&amp;H14&amp;" "&amp;H15)-LEN(SUBSTITUTE(H12&amp;" "&amp;H13&amp;" "&amp;H14&amp;" "&amp;H15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(H12&amp;" "&amp;H13&amp;" "&amp;H14&amp;" "&amp;H15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(H12&amp;" "&amp;H13&amp;" "&amp;H14&amp;" "&amp;H15)-LEN(SUBSTITUTE(H12&amp;" "&amp;H13&amp;" "&amp;H14&amp;" "&amp;H15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
+        <v>110</v>
+      </c>
+      <c r="I17" s="9" cm="1">
+        <f t="array" aca="1" ref="I17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15)-LEN(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15)-LEN(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" cm="1">
+        <f t="array" aca="1" ref="J17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15)-LEN(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15)-LEN(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" cm="1">
+        <f t="array" aca="1" ref="K17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15)-LEN(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15)-LEN(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="9" cm="1">
+        <f t="array" aca="1" ref="L17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15)-LEN(SUBSTITUTE(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15)-LEN(SUBSTITUTE(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="17">
+        <f ca="1">_xlfn.AGGREGATE(9,6,D17:L17)</f>
+        <v>570</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -956,7 +1090,7 @@
       <c r="L26" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A10:B11"/>
@@ -966,6 +1100,7 @@
     <mergeCell ref="C10:L10"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="C20:L20"/>
+    <mergeCell ref="C18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -973,6 +1108,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB10A8A1-7558-4AEA-B88F-04A0FDDF775F}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1395,6 +1531,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452B298E-883A-44BC-B43F-EDBF7F9AA022}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AAD2E8-89DD-44AA-B3C9-D4AA73F23EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280095D9-EB71-4B13-9F1B-709E66E163FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
   <si>
     <t>Buổi</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Tôm luộc, bánh tráng trộn (25k) + bánh tráng cuốn (25k).</t>
   </si>
   <si>
-    <t>Cơm + khổ qua nhồi thịt</t>
-  </si>
-  <si>
     <t>Vịt quay + tôm luộc + rượu (ăn chùa thôi nôi cháu)</t>
   </si>
   <si>
@@ -123,6 +120,15 @@
   </si>
   <si>
     <t>Cơm thịt kho ruốc + chuối (30k). Xúc xích (0k). Trà sữa lớn ministop (28k)</t>
+  </si>
+  <si>
+    <t>Cơm + khổ qua nhồi thịt (0k)</t>
+  </si>
+  <si>
+    <t>75kg (skinny fat)</t>
+  </si>
+  <si>
+    <t>Coca (10k)</t>
   </si>
 </sst>
 </file>
@@ -130,7 +136,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0&quot;k&quot;"/>
+    <numFmt numFmtId="164" formatCode="0&quot;k&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -164,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +189,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -264,17 +276,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -290,15 +323,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,10 +335,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,8 +636,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -605,28 +647,29 @@
     <col min="6" max="6" width="28.796875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="13.796875" customWidth="1"/>
     <col min="10" max="10" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -659,7 +702,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -677,7 +720,7 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -689,13 +732,13 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -711,7 +754,7 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -727,7 +770,7 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -743,60 +786,60 @@
       <c r="L7" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="16">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="6">
         <v>11</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="6">
         <v>12</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="6">
         <v>13</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="6">
         <v>14</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="6">
         <v>15</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="6">
         <v>16</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="6">
         <v>17</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="6">
         <v>18</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="6">
         <v>19</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="3"/>
@@ -807,19 +850,21 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
@@ -831,7 +876,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -839,14 +884,14 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
@@ -859,8 +904,8 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="3"/>
@@ -872,10 +917,10 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -883,8 +928,8 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3"/>
@@ -901,51 +946,57 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" cm="1">
+      <c r="A17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="4" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C12&amp;" "&amp;C13&amp;" "&amp;C14&amp;" "&amp;C15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C12&amp;" "&amp;C13&amp;" "&amp;C14&amp;" "&amp;C15)-LEN(SUBSTITUTE(C12&amp;" "&amp;C13&amp;" "&amp;C14&amp;" "&amp;C15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C12&amp;" "&amp;C13&amp;" "&amp;C14&amp;" "&amp;C15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C12&amp;" "&amp;C13&amp;" "&amp;C14&amp;" "&amp;C15)-LEN(SUBSTITUTE(C12&amp;" "&amp;C13&amp;" "&amp;C14&amp;" "&amp;C15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="9" cm="1">
+      <c r="D17" s="4" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(D12&amp;" "&amp;D13&amp;" "&amp;D14&amp;" "&amp;D15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(D12&amp;" "&amp;D13&amp;" "&amp;D14&amp;" "&amp;D15)-LEN(SUBSTITUTE(D12&amp;" "&amp;D13&amp;" "&amp;D14&amp;" "&amp;D15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(D12&amp;" "&amp;D13&amp;" "&amp;D14&amp;" "&amp;D15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(D12&amp;" "&amp;D13&amp;" "&amp;D14&amp;" "&amp;D15)-LEN(SUBSTITUTE(D12&amp;" "&amp;D13&amp;" "&amp;D14&amp;" "&amp;D15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>50</v>
       </c>
-      <c r="E17" s="9" cm="1">
+      <c r="E17" s="4" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(E12&amp;" "&amp;E13&amp;" "&amp;E14&amp;" "&amp;E15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(E12&amp;" "&amp;E13&amp;" "&amp;E14&amp;" "&amp;E15)-LEN(SUBSTITUTE(E12&amp;" "&amp;E13&amp;" "&amp;E14&amp;" "&amp;E15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(E12&amp;" "&amp;E13&amp;" "&amp;E14&amp;" "&amp;E15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(E12&amp;" "&amp;E13&amp;" "&amp;E14&amp;" "&amp;E15)-LEN(SUBSTITUTE(E12&amp;" "&amp;E13&amp;" "&amp;E14&amp;" "&amp;E15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>143</v>
       </c>
-      <c r="F17" s="9" cm="1">
+      <c r="F17" s="4" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(F12&amp;" "&amp;F13&amp;" "&amp;F14&amp;" "&amp;F15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(F12&amp;" "&amp;F13&amp;" "&amp;F14&amp;" "&amp;F15)-LEN(SUBSTITUTE(F12&amp;" "&amp;F13&amp;" "&amp;F14&amp;" "&amp;F15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(F12&amp;" "&amp;F13&amp;" "&amp;F14&amp;" "&amp;F15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(F12&amp;" "&amp;F13&amp;" "&amp;F14&amp;" "&amp;F15)-LEN(SUBSTITUTE(F12&amp;" "&amp;F13&amp;" "&amp;F14&amp;" "&amp;F15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>169</v>
       </c>
-      <c r="G17" s="9" cm="1">
+      <c r="G17" s="4" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(G12&amp;" "&amp;G13&amp;" "&amp;G14&amp;" "&amp;G15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(G12&amp;" "&amp;G13&amp;" "&amp;G14&amp;" "&amp;G15)-LEN(SUBSTITUTE(G12&amp;" "&amp;G13&amp;" "&amp;G14&amp;" "&amp;G15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(G12&amp;" "&amp;G13&amp;" "&amp;G14&amp;" "&amp;G15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(G12&amp;" "&amp;G13&amp;" "&amp;G14&amp;" "&amp;G15)-LEN(SUBSTITUTE(G12&amp;" "&amp;G13&amp;" "&amp;G14&amp;" "&amp;G15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>98</v>
       </c>
-      <c r="H17" s="9" cm="1">
+      <c r="H17" s="4" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(H12&amp;" "&amp;H13&amp;" "&amp;H14&amp;" "&amp;H15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(H12&amp;" "&amp;H13&amp;" "&amp;H14&amp;" "&amp;H15)-LEN(SUBSTITUTE(H12&amp;" "&amp;H13&amp;" "&amp;H14&amp;" "&amp;H15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(H12&amp;" "&amp;H13&amp;" "&amp;H14&amp;" "&amp;H15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(H12&amp;" "&amp;H13&amp;" "&amp;H14&amp;" "&amp;H15)-LEN(SUBSTITUTE(H12&amp;" "&amp;H13&amp;" "&amp;H14&amp;" "&amp;H15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>110</v>
       </c>
-      <c r="I17" s="9" cm="1">
+      <c r="I17" s="4" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15)-LEN(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15)-LEN(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="9" cm="1">
+        <v>10</v>
+      </c>
+      <c r="J17" s="4" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15)-LEN(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15)-LEN(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="9" cm="1">
+      <c r="K17" s="4" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15)-LEN(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15)-LEN(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="9" cm="1">
+      <c r="L17" s="4" cm="1">
         <f t="array" aca="1" ref="L17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15)-LEN(SUBSTITUTE(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15)-LEN(SUBSTITUTE(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="17">
         <f ca="1">_xlfn.AGGREGATE(9,6,D17:L17)</f>
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -958,24 +1009,24 @@
       <c r="L18" s="17"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="2">
         <v>21</v>
       </c>
@@ -1008,7 +1059,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1026,7 +1077,7 @@
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1042,7 +1093,7 @@
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1058,7 +1109,7 @@
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1125,7 @@
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1090,7 +1141,7 @@
       <c r="L26" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A10:B11"/>
@@ -1101,6 +1152,7 @@
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="C20:L20"/>
     <mergeCell ref="C18:L18"/>
+    <mergeCell ref="A17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1118,24 +1170,24 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -1168,7 +1220,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1186,7 +1238,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1202,7 +1254,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1218,7 +1270,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1234,7 +1286,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1250,24 +1302,24 @@
       <c r="L7" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2">
         <v>11</v>
       </c>
@@ -1300,7 +1352,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1318,7 +1370,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1334,7 +1386,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1350,7 +1402,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1418,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1382,24 +1434,24 @@
       <c r="L16" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="2">
         <v>21</v>
       </c>
@@ -1432,7 +1484,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1450,7 +1502,7 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1518,7 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1534,7 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1498,7 +1550,7 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1541,24 +1593,24 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -1591,7 +1643,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1609,7 +1661,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1625,7 +1677,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1641,7 +1693,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1657,7 +1709,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1673,24 +1725,24 @@
       <c r="L7" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2">
         <v>11</v>
       </c>
@@ -1723,7 +1775,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1741,7 +1793,7 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1757,7 +1809,7 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1773,7 +1825,7 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1789,7 +1841,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1805,24 +1857,24 @@
       <c r="L16" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="2">
         <v>21</v>
       </c>
@@ -1855,7 +1907,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1873,7 +1925,7 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1889,7 +1941,7 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1905,7 +1957,7 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1921,7 +1973,7 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>

--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280095D9-EB71-4B13-9F1B-709E66E163FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F624C-2A8D-43D7-B0AA-2D7508FE8CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
   <si>
     <t>Buổi</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Coca (10k)</t>
+  </si>
+  <si>
+    <t>Cơm gà xối mỡ đùi tỏi (32k).</t>
+  </si>
+  <si>
+    <t>Café sữa tươi (20k)</t>
   </si>
 </sst>
 </file>
@@ -637,7 +643,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -835,7 +841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>0</v>
       </c>
@@ -878,7 +884,9 @@
       <c r="H13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -898,7 +906,9 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -922,7 +932,9 @@
       <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -976,7 +988,7 @@
       </c>
       <c r="I17" s="4" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15)-LEN(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15)-LEN(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="J17" s="4" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15)-LEN(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15)-LEN(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
@@ -996,7 +1008,7 @@
       <c r="B18" s="21"/>
       <c r="C18" s="17">
         <f ca="1">_xlfn.AGGREGATE(9,6,D17:L17)</f>
-        <v>580</v>
+        <v>642</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>

--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F624C-2A8D-43D7-B0AA-2D7508FE8CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49278DFD-5C66-4E79-A8D4-561E34E8F5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
   <si>
     <t>Buổi</t>
   </si>
@@ -131,10 +131,13 @@
     <t>Coca (10k)</t>
   </si>
   <si>
-    <t>Cơm gà xối mỡ đùi tỏi (32k).</t>
-  </si>
-  <si>
-    <t>Café sữa tươi (20k)</t>
+    <t xml:space="preserve"> Café sữa tươi (20k)</t>
+  </si>
+  <si>
+    <t>Cơm gà xối mỡ đùi tỏi (32k), Coca (10k).</t>
+  </si>
+  <si>
+    <t>Bún bò huế (40k) [bà này bữa bán 35k nay lên 40k. Phải nghi ngờ]</t>
   </si>
 </sst>
 </file>
@@ -642,8 +645,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -885,7 +888,7 @@
         <v>19</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -907,13 +910,13 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
         <v>4</v>
@@ -933,7 +936,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -988,7 +991,7 @@
       </c>
       <c r="I17" s="4" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15)-LEN(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15)-LEN(SUBSTITUTE(I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="J17" s="4" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15)-LEN(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15)-LEN(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
@@ -1008,7 +1011,7 @@
       <c r="B18" s="21"/>
       <c r="C18" s="17">
         <f ca="1">_xlfn.AGGREGATE(9,6,D17:L17)</f>
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>

--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49278DFD-5C66-4E79-A8D4-561E34E8F5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416EF524-1CFC-44BB-AFF4-17C2DA8245B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Thang 2-2025" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
   <si>
     <t>Buổi</t>
   </si>
@@ -138,6 +139,15 @@
   </si>
   <si>
     <t>Bún bò huế (40k) [bà này bữa bán 35k nay lên 40k. Phải nghi ngờ]</t>
+  </si>
+  <si>
+    <t>cafe gói (3k)</t>
+  </si>
+  <si>
+    <t>Cơm sườn (30k) [chỗ này ăn dở vãi đái, cơm thịt canh đều nguội, nước mắm còn có bọ]</t>
+  </si>
+  <si>
+    <t>café sữa (24k)</t>
   </si>
 </sst>
 </file>
@@ -645,8 +655,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -862,11 +872,13 @@
       <c r="I12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="5" t="s">
         <v>2</v>
@@ -890,7 +902,9 @@
       <c r="I13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
@@ -912,7 +926,9 @@
       <c r="I14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
@@ -995,7 +1011,7 @@
       </c>
       <c r="J17" s="4" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15)-LEN(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15)-LEN(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K17" s="4" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15)-LEN(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15)-LEN(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
@@ -1011,7 +1027,7 @@
       <c r="B18" s="21"/>
       <c r="C18" s="17">
         <f ca="1">_xlfn.AGGREGATE(9,6,D17:L17)</f>
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>

--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416EF524-1CFC-44BB-AFF4-17C2DA8245B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9A6CAA-A346-4C56-8FF9-0DCA6DCEFC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Thang 2-2025" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
   <si>
     <t>Buổi</t>
   </si>
@@ -148,6 +147,12 @@
   </si>
   <si>
     <t>café sữa (24k)</t>
+  </si>
+  <si>
+    <t>Lẩu (199k)[vô vị], Trà tắc (10k), Phúc Long (0k)[ kêu trà sữa mà chị bán nước nghe thành trà PL, uống như trà đá đường???].</t>
+  </si>
+  <si>
+    <t>Mì gói (5k)</t>
   </si>
 </sst>
 </file>
@@ -655,8 +660,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -667,7 +672,7 @@
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="15.3984375" customWidth="1"/>
     <col min="9" max="9" width="13.796875" customWidth="1"/>
-    <col min="10" max="10" width="13.59765625" customWidth="1"/>
+    <col min="10" max="10" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -878,7 +883,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="69" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="5" t="s">
         <v>2</v>
@@ -905,7 +910,9 @@
       <c r="J13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
@@ -932,7 +939,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
         <v>4</v>
@@ -954,7 +961,9 @@
       <c r="I15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
@@ -1011,11 +1020,11 @@
       </c>
       <c r="J17" s="4" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15)-LEN(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15)-LEN(SUBSTITUTE(J12&amp;" "&amp;J13&amp;" "&amp;J14&amp;" "&amp;J15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>57</v>
+        <v>266</v>
       </c>
       <c r="K17" s="4" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15)-LEN(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15)-LEN(SUBSTITUTE(K12&amp;" "&amp;K13&amp;" "&amp;K14&amp;" "&amp;K15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17" s="4" cm="1">
         <f t="array" aca="1" ref="L17" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15)-LEN(SUBSTITUTE(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15)-LEN(SUBSTITUTE(L12&amp;" "&amp;L13&amp;" "&amp;L14&amp;" "&amp;L15,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
@@ -1027,7 +1036,7 @@
       <c r="B18" s="21"/>
       <c r="C18" s="17">
         <f ca="1">_xlfn.AGGREGATE(9,6,D17:L17)</f>
-        <v>739</v>
+        <v>953</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>

--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6EA210-EE7B-4B3D-813C-32E1C8DBE2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA000810-138D-4A0B-9218-F8CD6EBFEFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
   <si>
     <t>Buổi</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Cơm gà xối mỡ (35k), trà sữa ministop li lớn và xúc xích (28k), bánh ngọt 3k.</t>
   </si>
   <si>
-    <t>Bình nước suối 5l</t>
-  </si>
-  <si>
     <t>Tôm luộc, bánh tráng trộn (25k) + bánh tráng cuốn (25k).</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Lẩu (199k)[vô vị], Trà tắc (10k), Phúc Long (0k)[ kêu trà sữa mà chị bán nước nghe thành trà PL, uống như trà đá đường???].</t>
   </si>
   <si>
-    <t>Mì gói (4k)</t>
-  </si>
-  <si>
     <t>Café sữa (24k)</t>
   </si>
   <si>
@@ -159,6 +153,15 @@
   </si>
   <si>
     <t>Bình nước suối 5l (21k)</t>
+  </si>
+  <si>
+    <t>Bình nước suối 5l (25k)</t>
+  </si>
+  <si>
+    <t>Hotpot ministop, 2 chả cá rồng, 1 chả ốc (45k), trà tắc ministop(20k) [lần đầu ăn hotpot ở đây, thấy nước lẩu ngon hơn gia đình mart.</t>
+  </si>
+  <si>
+    <t>Mì gói (4k) [phải ăn]</t>
   </si>
 </sst>
 </file>
@@ -337,22 +340,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -367,10 +358,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -656,8 +659,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -669,28 +672,28 @@
     <col min="8" max="8" width="15.3984375" customWidth="1"/>
     <col min="9" max="9" width="13.796875" customWidth="1"/>
     <col min="10" max="10" width="17.09765625" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="11" max="11" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="5">
         <v>1</v>
       </c>
@@ -723,7 +726,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -741,7 +744,7 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -757,7 +760,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -772,7 +775,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -788,7 +791,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -804,10 +807,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="13"/>
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="3" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -850,41 +853,41 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="11">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12">
         <f ca="1">_xlfn.AGGREGATE(9,6,D8:L8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="5">
         <v>11</v>
       </c>
@@ -917,7 +920,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -932,22 +935,22 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>
@@ -959,28 +962,30 @@
         <v>12</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>11</v>
@@ -988,55 +993,55 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1044,15 +1049,15 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="13"/>
+      <c r="A19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9"/>
       <c r="C19" s="3" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -1087,63 +1092,63 @@
       </c>
       <c r="K19" s="3" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(K14&amp;" "&amp;K15&amp;" "&amp;K16&amp;" "&amp;K17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(K14&amp;" "&amp;K15&amp;" "&amp;K16&amp;" "&amp;K17)-LEN(SUBSTITUTE(K14&amp;" "&amp;K15&amp;" "&amp;K16&amp;" "&amp;K17,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(K14&amp;" "&amp;K15&amp;" "&amp;K16&amp;" "&amp;K17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(K14&amp;" "&amp;K15&amp;" "&amp;K16&amp;" "&amp;K17)-LEN(SUBSTITUTE(K14&amp;" "&amp;K15&amp;" "&amp;K16&amp;" "&amp;K17,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="L19" s="3" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17)-LEN(SUBSTITUTE(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17)-LEN(SUBSTITUTE(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="11">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12">
         <f ca="1">_xlfn.AGGREGATE(9,6,D19:L19)</f>
-        <v>1018</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+        <v>1083</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="5">
         <v>21</v>
       </c>
@@ -1176,7 +1181,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1194,7 +1199,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
@@ -1210,7 +1215,7 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
@@ -1225,7 +1230,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1246,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
@@ -1257,10 +1262,10 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="13"/>
+      <c r="A30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="3" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -1303,21 +1308,21 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="11">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12">
         <f ca="1">_xlfn.AGGREGATE(9,6,D30:L30)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1353,24 +1358,24 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="5">
         <v>1</v>
       </c>
@@ -1403,7 +1408,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1421,7 +1426,7 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1437,7 +1442,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1452,7 +1457,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1468,7 +1473,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1484,10 +1489,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="13"/>
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="3" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -1530,41 +1535,41 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="11">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12">
         <f ca="1">_xlfn.AGGREGATE(9,6,D8:L8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="5">
         <v>11</v>
       </c>
@@ -1597,7 +1602,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1615,7 +1620,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1631,7 +1636,7 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1646,7 +1651,7 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1662,7 +1667,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
@@ -1678,10 +1683,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="13"/>
+      <c r="A19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9"/>
       <c r="C19" s="3" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -1724,55 +1729,55 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="11">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12">
         <f ca="1">_xlfn.AGGREGATE(9,6,D19:L19)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="5">
         <v>21</v>
       </c>
@@ -1805,7 +1810,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1823,7 +1828,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
@@ -1839,7 +1844,7 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
@@ -1854,7 +1859,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
@@ -1870,7 +1875,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
@@ -1886,10 +1891,10 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="13"/>
+      <c r="A30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="3" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -1932,39 +1937,39 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="11">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12">
         <f ca="1">_xlfn.AGGREGATE(9,6,D30:L30)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C9:L9"/>
     <mergeCell ref="C23:L23"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="A30:B31"/>
     <mergeCell ref="C31:L31"/>
     <mergeCell ref="C20:L20"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1982,24 +1987,24 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="5">
         <v>1</v>
       </c>
@@ -2032,7 +2037,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2050,7 +2055,7 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2066,7 +2071,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2081,7 +2086,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2102,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2113,10 +2118,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="13"/>
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="3" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -2159,41 +2164,41 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="11">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12">
         <f ca="1">_xlfn.AGGREGATE(9,6,D8:L8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="5">
         <v>11</v>
       </c>
@@ -2226,7 +2231,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2244,7 +2249,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -2260,7 +2265,7 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -2275,7 +2280,7 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
@@ -2291,7 +2296,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
@@ -2307,10 +2312,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="13"/>
+      <c r="A19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9"/>
       <c r="C19" s="3" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -2353,55 +2358,55 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="11">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12">
         <f ca="1">_xlfn.AGGREGATE(9,6,D19:L19)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="5">
         <v>21</v>
       </c>
@@ -2434,7 +2439,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2452,7 +2457,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
@@ -2468,7 +2473,7 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
@@ -2483,7 +2488,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
@@ -2499,7 +2504,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2515,10 +2520,10 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="13"/>
+      <c r="A30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="3" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -2561,39 +2566,39 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="11">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12">
         <f ca="1">_xlfn.AGGREGATE(9,6,D30:L30)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C9:L9"/>
     <mergeCell ref="C23:L23"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="A30:B31"/>
     <mergeCell ref="C31:L31"/>
     <mergeCell ref="C20:L20"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA000810-138D-4A0B-9218-F8CD6EBFEFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B415ECE-8701-40DB-9CC4-3F2774DF8E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,7 +161,7 @@
     <t>Hotpot ministop, 2 chả cá rồng, 1 chả ốc (45k), trà tắc ministop(20k) [lần đầu ăn hotpot ở đây, thấy nước lẩu ngon hơn gia đình mart.</t>
   </si>
   <si>
-    <t>Mì gói (4k) [phải ăn]</t>
+    <t>Mì gói (4k), Coca (7k)</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -973,11 +973,9 @@
       <c r="K15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
@@ -1001,7 +999,9 @@
       <c r="K16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="L19" s="3" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17)-LEN(SUBSTITUTE(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17)-LEN(SUBSTITUTE(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
       <c r="B20" s="11"/>
       <c r="C20" s="12">
         <f ca="1">_xlfn.AGGREGATE(9,6,D19:L19)</f>
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1955,21 +1955,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C9:L9"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="C12:L12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:B20"/>
     <mergeCell ref="A23:B24"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C9:L9"/>
     <mergeCell ref="C23:L23"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="C20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2584,21 +2584,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C9:L9"/>
     <mergeCell ref="A12:B13"/>
     <mergeCell ref="C12:L12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:B20"/>
     <mergeCell ref="A23:B24"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C9:L9"/>
     <mergeCell ref="C23:L23"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="C20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B415ECE-8701-40DB-9CC4-3F2774DF8E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1A3827-46E5-4876-B024-D4AF558CEFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
   <si>
     <t>Buổi</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Mì gói (4k), Coca (7k)</t>
+  </si>
+  <si>
+    <t>Bún bò(40k), bánh mè dai(11k) + betagen dứa (18k) ministop.</t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>4</v>
@@ -1031,7 +1034,9 @@
       <c r="K17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -1096,7 +1101,7 @@
       </c>
       <c r="L19" s="3" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17)-LEN(SUBSTITUTE(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17)-LEN(SUBSTITUTE(L14&amp;" "&amp;L15&amp;" "&amp;L16&amp;" "&amp;L17,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1104,7 +1109,7 @@
       <c r="B20" s="11"/>
       <c r="C20" s="12">
         <f ca="1">_xlfn.AGGREGATE(9,6,D19:L19)</f>
-        <v>1090</v>
+        <v>1159</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>

--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1A3827-46E5-4876-B024-D4AF558CEFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D29A88A-0F24-47AC-93C4-AB290D4A6E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t>Buổi</t>
   </si>
@@ -165,6 +165,27 @@
   </si>
   <si>
     <t>Bún bò(40k), bánh mè dai(11k) + betagen dứa (18k) ministop.</t>
+  </si>
+  <si>
+    <t>Cơm đùi gà (35k), sữa tươi café(20k)</t>
+  </si>
+  <si>
+    <t>Cơm 2 trứng chiên + chả cá (55k). Bánh nhân kem ministop (13k) [cái này ăn ngon điên, mai mua tiếp], sữa tươi ít đường (6k)</t>
+  </si>
+  <si>
+    <t>Vàng là ngày bệnh</t>
+  </si>
+  <si>
+    <t>Cơm đùi gà chiên (35k)</t>
+  </si>
+  <si>
+    <t>Bánh mì thịt nướng trứng (22k) + café sữa ministop (19k) + bánh nhân kem (13k)</t>
+  </si>
+  <si>
+    <t>Café sữa (40k)[mac vai lon, uong cung khong ngon lanh gi] + bánh mì trứng chả cá (25k) [cùng 1 chỗ, bánh mì ăn cũng ok]</t>
+  </si>
+  <si>
+    <t>Cơm đùi gà chiên nước mắm (35k) + café sữa (24k)</t>
   </si>
 </sst>
 </file>
@@ -206,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +252,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -330,11 +357,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -347,6 +411,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -378,6 +454,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,15 +745,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:L9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" customWidth="1"/>
     <col min="5" max="5" width="15.296875" customWidth="1"/>
     <col min="6" max="6" width="28.796875" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
@@ -676,27 +762,28 @@
     <col min="9" max="9" width="13.796875" customWidth="1"/>
     <col min="10" max="10" width="17.09765625" customWidth="1"/>
     <col min="11" max="11" width="17.796875" customWidth="1"/>
+    <col min="12" max="12" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="5">
         <v>1</v>
       </c>
@@ -729,7 +816,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -747,7 +834,7 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -763,7 +850,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -778,7 +865,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -794,7 +881,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -810,10 +897,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -856,41 +943,41 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16">
         <f ca="1">_xlfn.AGGREGATE(9,6,D8:L8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="5">
         <v>11</v>
       </c>
@@ -923,7 +1010,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -947,7 +1034,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -979,7 +1066,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +1094,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +1126,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
@@ -1059,10 +1146,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -1105,21 +1192,21 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16">
         <f ca="1">_xlfn.AGGREGATE(9,6,D19:L19)</f>
         <v>1159</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -1136,24 +1223,24 @@
       <c r="L21" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5">
         <v>21</v>
       </c>
@@ -1186,13 +1273,13 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1203,14 +1290,20 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+    <row r="26" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="C26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1219,13 +1312,16 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="2"/>
+      <c r="E27" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1234,28 +1330,31 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+    <row r="28" spans="1:12" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="C28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1267,21 +1366,21 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="3" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="D30" s="3" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(D25&amp;" "&amp;D26&amp;" "&amp;D27&amp;" "&amp;D28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(D25&amp;" "&amp;D26&amp;" "&amp;D27&amp;" "&amp;D28)-LEN(SUBSTITUTE(D25&amp;" "&amp;D26&amp;" "&amp;D27&amp;" "&amp;D28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(D25&amp;" "&amp;D26&amp;" "&amp;D27&amp;" "&amp;D28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(D25&amp;" "&amp;D26&amp;" "&amp;D27&amp;" "&amp;D28)-LEN(SUBSTITUTE(D25&amp;" "&amp;D26&amp;" "&amp;D27&amp;" "&amp;D28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E30" s="3" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(E25&amp;" "&amp;E26&amp;" "&amp;E27&amp;" "&amp;E28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(E25&amp;" "&amp;E26&amp;" "&amp;E27&amp;" "&amp;E28)-LEN(SUBSTITUTE(E25&amp;" "&amp;E26&amp;" "&amp;E27&amp;" "&amp;E28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(E25&amp;" "&amp;E26&amp;" "&amp;E27&amp;" "&amp;E28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(E25&amp;" "&amp;E26&amp;" "&amp;E27&amp;" "&amp;E28)-LEN(SUBSTITUTE(E25&amp;" "&amp;E26&amp;" "&amp;E27&amp;" "&amp;E28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="F30" s="3" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(F25&amp;" "&amp;F26&amp;" "&amp;F27&amp;" "&amp;F28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(F25&amp;" "&amp;F26&amp;" "&amp;F27&amp;" "&amp;F28)-LEN(SUBSTITUTE(F25&amp;" "&amp;F26&amp;" "&amp;F27&amp;" "&amp;F28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(F25&amp;" "&amp;F26&amp;" "&amp;F27&amp;" "&amp;F28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(F25&amp;" "&amp;F26&amp;" "&amp;F27&amp;" "&amp;F28)-LEN(SUBSTITUTE(F25&amp;" "&amp;F26&amp;" "&amp;F27&amp;" "&amp;F28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
@@ -1292,11 +1391,11 @@
         <v>0</v>
       </c>
       <c r="H30" s="3" cm="1">
-        <f t="array" aca="1" ref="H30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;H28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;H28)-LEN(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;H28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;H28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;H28)-LEN(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;H28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
+        <f t="array" aca="1" ref="H30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;I28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;I28)-LEN(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;I28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;I28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;I28)-LEN(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;I28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
       </c>
       <c r="I30" s="3" cm="1">
-        <f t="array" aca="1" ref="I30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;I28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;I28)-LEN(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;I28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;I28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;I28)-LEN(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;I28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
+        <f t="array" aca="1" ref="I30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;#REF!,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;#REF!)-LEN(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;#REF!,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;#REF!,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;#REF!)-LEN(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;#REF!,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
       </c>
       <c r="J30" s="3" cm="1">
@@ -1313,24 +1412,38 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12">
-        <f ca="1">_xlfn.AGGREGATE(9,6,D30:L30)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16">
+        <f ca="1">SUM(C30:L30)</f>
+        <v>342</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="9">
+        <f ca="1">SUM(C31,C20,C9)</f>
+        <v>1501</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="F33:H33"/>
     <mergeCell ref="A30:B31"/>
     <mergeCell ref="C31:L31"/>
     <mergeCell ref="A25:A29"/>
@@ -1363,24 +1476,24 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="5">
         <v>1</v>
       </c>
@@ -1413,7 +1526,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1431,7 +1544,7 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1447,7 +1560,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1462,7 +1575,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1478,7 +1591,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1494,10 +1607,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -1540,41 +1653,41 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16">
         <f ca="1">_xlfn.AGGREGATE(9,6,D8:L8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="5">
         <v>11</v>
       </c>
@@ -1607,7 +1720,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1625,7 +1738,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1641,7 +1754,7 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1656,7 +1769,7 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1672,7 +1785,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
@@ -1688,10 +1801,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -1734,21 +1847,21 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16">
         <f ca="1">_xlfn.AGGREGATE(9,6,D19:L19)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -1765,24 +1878,24 @@
       <c r="L21" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5">
         <v>21</v>
       </c>
@@ -1815,7 +1928,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1833,7 +1946,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
@@ -1849,7 +1962,7 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
@@ -1864,7 +1977,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
@@ -1880,7 +1993,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
@@ -1896,10 +2009,10 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="3" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -1942,21 +2055,21 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16">
         <f ca="1">_xlfn.AGGREGATE(9,6,D30:L30)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1992,24 +2105,24 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="5">
         <v>1</v>
       </c>
@@ -2042,7 +2155,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2060,7 +2173,7 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2076,7 +2189,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2091,7 +2204,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2107,7 +2220,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2123,10 +2236,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -2169,41 +2282,41 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16">
         <f ca="1">_xlfn.AGGREGATE(9,6,D8:L8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="5">
         <v>11</v>
       </c>
@@ -2236,7 +2349,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2254,7 +2367,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -2270,7 +2383,7 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -2285,7 +2398,7 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
@@ -2301,7 +2414,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
@@ -2317,10 +2430,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -2363,21 +2476,21 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16">
         <f ca="1">_xlfn.AGGREGATE(9,6,D19:L19)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -2394,24 +2507,24 @@
       <c r="L21" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5">
         <v>21</v>
       </c>
@@ -2444,7 +2557,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2462,7 +2575,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
@@ -2478,7 +2591,7 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
@@ -2493,7 +2606,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
@@ -2509,7 +2622,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2525,10 +2638,10 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="3" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -2571,21 +2684,21 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16">
         <f ca="1">_xlfn.AGGREGATE(9,6,D30:L30)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Mon Ngon Moi Ngay.xlsx
+++ b/Mon Ngon Moi Ngay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityGames\Build\HideAndSeek\Toi_Da_An_Gi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D29A88A-0F24-47AC-93C4-AB290D4A6E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D85087E-741F-4C0B-B473-A803CC23A1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
   <si>
     <t>Buổi</t>
   </si>
@@ -186,6 +186,30 @@
   </si>
   <si>
     <t>Cơm đùi gà chiên nước mắm (35k) + café sữa (24k)</t>
+  </si>
+  <si>
+    <t>Mì gà cay &amp; trứng ministop (36k), café gói (4k)</t>
+  </si>
+  <si>
+    <t>Cơm gà (32k), Café sữa (24k)</t>
+  </si>
+  <si>
+    <t>Cơm Gà (32k), Café sữa (24k)</t>
+  </si>
+  <si>
+    <t>Cơm gà (32k), Café sữa (24k), mì gói (4k)</t>
+  </si>
+  <si>
+    <t>Revive (13k),  Trà sữa Phúc Long (55k), Hủ tiếu sa tế (65k), mì gói (4k)</t>
+  </si>
+  <si>
+    <t>Cơm + trứng chiên (7k), chuối (5k), sữa + yến mạch (15k)</t>
+  </si>
+  <si>
+    <t>Cơm xúc xích trứng (10k), café sữa (10k)</t>
+  </si>
+  <si>
+    <t>2 Mì gói thịt kho trứng (8k), café sữa (10k)</t>
   </si>
 </sst>
 </file>
@@ -259,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -394,6 +418,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -414,6 +449,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -454,15 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,8 +782,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -766,24 +801,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5">
         <v>1</v>
       </c>
@@ -816,7 +851,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -834,7 +869,7 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -850,7 +885,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -865,7 +900,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -881,7 +916,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -897,10 +932,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="3" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -943,41 +978,41 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19">
         <f ca="1">_xlfn.AGGREGATE(9,6,D8:L8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="5">
         <v>11</v>
       </c>
@@ -1010,7 +1045,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1034,7 +1069,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="69" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1066,7 +1101,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1129,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1126,7 +1161,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
@@ -1146,10 +1181,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="3" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -1192,21 +1227,21 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19">
         <f ca="1">_xlfn.AGGREGATE(9,6,D19:L19)</f>
         <v>1159</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -1223,24 +1258,24 @@
       <c r="L21" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5">
         <v>21</v>
       </c>
@@ -1273,84 +1308,103 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="22" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="F27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="E28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
@@ -1366,10 +1420,10 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="3" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>129</v>
@@ -1380,23 +1434,23 @@
       </c>
       <c r="E30" s="3" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(E25&amp;" "&amp;E26&amp;" "&amp;E27&amp;" "&amp;E28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(E25&amp;" "&amp;E26&amp;" "&amp;E27&amp;" "&amp;E28)-LEN(SUBSTITUTE(E25&amp;" "&amp;E26&amp;" "&amp;E27&amp;" "&amp;E28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(E25&amp;" "&amp;E26&amp;" "&amp;E27&amp;" "&amp;E28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(E25&amp;" "&amp;E26&amp;" "&amp;E27&amp;" "&amp;E28)-LEN(SUBSTITUTE(E25&amp;" "&amp;E26&amp;" "&amp;E27&amp;" "&amp;E28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="F30" s="3" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(F25&amp;" "&amp;F26&amp;" "&amp;F27&amp;" "&amp;F28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(F25&amp;" "&amp;F26&amp;" "&amp;F27&amp;" "&amp;F28)-LEN(SUBSTITUTE(F25&amp;" "&amp;F26&amp;" "&amp;F27&amp;" "&amp;F28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(F25&amp;" "&amp;F26&amp;" "&amp;F27&amp;" "&amp;F28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(F25&amp;" "&amp;F26&amp;" "&amp;F27&amp;" "&amp;F28)-LEN(SUBSTITUTE(F25&amp;" "&amp;F26&amp;" "&amp;F27&amp;" "&amp;F28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="G30" s="3" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(G25&amp;" "&amp;G26&amp;" "&amp;G27&amp;" "&amp;G28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(G25&amp;" "&amp;G26&amp;" "&amp;G27&amp;" "&amp;G28)-LEN(SUBSTITUTE(G25&amp;" "&amp;G26&amp;" "&amp;G27&amp;" "&amp;G28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(G25&amp;" "&amp;G26&amp;" "&amp;G27&amp;" "&amp;G28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(G25&amp;" "&amp;G26&amp;" "&amp;G27&amp;" "&amp;G28)-LEN(SUBSTITUTE(G25&amp;" "&amp;G26&amp;" "&amp;G27&amp;" "&amp;G28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="H30" s="3" cm="1">
-        <f t="array" aca="1" ref="H30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;I28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;I28)-LEN(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;I28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;I28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;I28)-LEN(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;I28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>0</v>
+        <f t="array" aca="1" ref="H30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;H28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;H28)-LEN(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;H28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;H28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;H28)-LEN(SUBSTITUTE(H25&amp;" "&amp;H26&amp;" "&amp;H27&amp;" "&amp;H28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
+        <v>83</v>
       </c>
       <c r="I30" s="3" cm="1">
-        <f t="array" aca="1" ref="I30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;#REF!,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;#REF!)-LEN(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;#REF!,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;#REF!,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;#REF!)-LEN(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;#REF!,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
-        <v>0</v>
+        <f t="array" aca="1" ref="I30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;I28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;I28)-LEN(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;I28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;I28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;I28)-LEN(SUBSTITUTE(I25&amp;" "&amp;I26&amp;" "&amp;I27&amp;" "&amp;I28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
+        <v>38</v>
       </c>
       <c r="J30" s="3" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(J25&amp;" "&amp;J26&amp;" "&amp;J27&amp;" "&amp;J28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(J25&amp;" "&amp;J26&amp;" "&amp;J27&amp;" "&amp;J28)-LEN(SUBSTITUTE(J25&amp;" "&amp;J26&amp;" "&amp;J27&amp;" "&amp;J28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(J25&amp;" "&amp;J26&amp;" "&amp;J27&amp;" "&amp;J28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(J25&amp;" "&amp;J26&amp;" "&amp;J27&amp;" "&amp;J28)-LEN(SUBSTITUTE(J25&amp;" "&amp;J26&amp;" "&amp;J27&amp;" "&amp;J28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
@@ -1412,29 +1466,29 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19">
         <f ca="1">SUM(C30:L30)</f>
-        <v>342</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
+        <v>812</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="9">
+      <c r="F33" s="12">
         <f ca="1">SUM(C31,C20,C9)</f>
-        <v>1501</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
+        <v>1971</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1476,24 +1530,24 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5">
         <v>1</v>
       </c>
@@ -1526,7 +1580,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1544,7 +1598,7 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1560,7 +1614,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1575,7 +1629,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1645,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1607,10 +1661,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="3" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -1653,41 +1707,41 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19">
         <f ca="1">_xlfn.AGGREGATE(9,6,D8:L8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="5">
         <v>11</v>
       </c>
@@ -1720,7 +1774,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1738,7 +1792,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1754,7 +1808,7 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1769,7 +1823,7 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1785,7 +1839,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
@@ -1801,10 +1855,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="3" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -1847,21 +1901,21 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19">
         <f ca="1">_xlfn.AGGREGATE(9,6,D19:L19)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -1878,24 +1932,24 @@
       <c r="L21" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5">
         <v>21</v>
       </c>
@@ -1928,7 +1982,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1946,7 +2000,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
@@ -1962,7 +2016,7 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
@@ -1977,7 +2031,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
@@ -1993,7 +2047,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2009,10 +2063,10 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="3" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -2055,21 +2109,21 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19">
         <f ca="1">_xlfn.AGGREGATE(9,6,D30:L30)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2105,24 +2159,24 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5">
         <v>1</v>
       </c>
@@ -2155,7 +2209,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2173,7 +2227,7 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2189,7 +2243,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2204,7 +2258,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2220,7 +2274,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2236,10 +2290,10 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="3" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6)-LEN(SUBSTITUTE(C3&amp;" "&amp;C4&amp;" "&amp;C5&amp;" "&amp;C6,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -2282,41 +2336,41 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19">
         <f ca="1">_xlfn.AGGREGATE(9,6,D8:L8)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="5">
         <v>11</v>
       </c>
@@ -2349,7 +2403,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2367,7 +2421,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
@@ -2383,7 +2437,7 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
@@ -2398,7 +2452,7 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
@@ -2414,7 +2468,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
@@ -2430,10 +2484,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="3" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17)-LEN(SUBSTITUTE(C14&amp;" "&amp;C15&amp;" "&amp;C16&amp;" "&amp;C17,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -2476,21 +2530,21 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19">
         <f ca="1">_xlfn.AGGREGATE(9,6,D19:L19)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -2507,24 +2561,24 @@
       <c r="L21" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="17" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5">
         <v>21</v>
       </c>
@@ -2557,7 +2611,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2575,7 +2629,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
@@ -2591,7 +2645,7 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
@@ -2606,7 +2660,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
@@ -2622,7 +2676,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2638,10 +2692,10 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="3" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">IFERROR(SUM(VALUE(SUBSTITUTE(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(" ",TRUE,LEFT(TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999)),FIND(")",TRIM(MID(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(",REPT(" ",999)),999*ROW(INDIRECT("1:" &amp; LEN(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28)-LEN(SUBSTITUTE(C25&amp;" "&amp;C26&amp;" "&amp;C27&amp;" "&amp;C28,"(","")))),999))&amp;")")-1)), " "),"k",""))),0)</f>
         <v>0</v>
@@ -2684,21 +2738,21 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19">
         <f ca="1">_xlfn.AGGREGATE(9,6,D30:L30)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="15">
